--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E26B4C-1A48-44F4-AB63-BF1F1E490396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEFF24-562B-426D-BBEF-7EAEF47DB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="890" windowWidth="18780" windowHeight="9910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Keyword</t>
   </si>
@@ -79,9 +79,6 @@
     <t>button_addNewProfile</t>
   </si>
   <si>
-    <t>dropdown_fiscalYear_pro_coa_sec</t>
-  </si>
-  <si>
     <t>Agency</t>
   </si>
   <si>
@@ -137,6 +134,15 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_ListView_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023 </t>
+  </si>
+  <si>
+    <t>dropdown_fiscalYearListView_fp</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +525,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,10 +574,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -585,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -599,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -610,10 +617,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -698,16 +705,16 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -736,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -754,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2023</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -772,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4">
         <v>2023</v>
@@ -790,13 +797,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>2023</v>
@@ -808,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>2023</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEFF24-562B-426D-BBEF-7EAEF47DB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FFCB9-69A8-4C97-822B-F4B8210DE378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Keyword</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Fiscal</t>
   </si>
   <si>
-    <t>J02 - J02</t>
-  </si>
-  <si>
     <t>Organization Code Profile</t>
   </si>
   <si>
@@ -136,13 +133,13 @@
     <t>TC_PM_COA_SEC_ListView_D3</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2023 </t>
   </si>
   <si>
-    <t>dropdown_fiscalYearListView_fp</t>
+    <t>dropdown_fiscalYear_pro_coa_sec</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,10 +571,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -592,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -606,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -617,10 +614,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -705,7 +702,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -761,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -779,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>2023</v>
@@ -797,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4">
         <v>2023</v>
@@ -815,13 +812,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>2023</v>
